--- a/puskesmas/public/files/template/inventory/kibe.xlsx
+++ b/puskesmas/public/files/template/inventory/kibe.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\infokes\bogor\puskesmas\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>KARTU INVENTARIS BARANG (KIB) E</t>
   </si>
@@ -192,6 +189,27 @@
   </si>
   <si>
     <t>[b.tanggal_export]</t>
+  </si>
+  <si>
+    <t>Provinsi</t>
+  </si>
+  <si>
+    <t>Kab./Kota</t>
+  </si>
+  <si>
+    <t>Bidang</t>
+  </si>
+  <si>
+    <t>Unit Organisasi</t>
+  </si>
+  <si>
+    <t>Sub Unit Organisasi</t>
+  </si>
+  <si>
+    <t>UPB</t>
+  </si>
+  <si>
+    <t>No. Kode Lokasi</t>
   </si>
 </sst>
 </file>
@@ -201,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +246,27 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -238,12 +277,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -266,17 +305,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -292,15 +320,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -336,17 +355,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -377,6 +385,26 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -386,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -394,42 +422,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -439,62 +434,90 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,6 +525,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -511,113 +539,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="KIB A"/>
-      <sheetName val="KIB D"/>
-      <sheetName val="KIB C"/>
-      <sheetName val="EXTRACOMTABLE"/>
-      <sheetName val="KURANG BAIK"/>
-      <sheetName val="TIDAK MASUK KIB"/>
-      <sheetName val="B - MTR"/>
-      <sheetName val="TIDAK ADA FISIK"/>
-      <sheetName val="KIB LAMA"/>
-      <sheetName val="B - RB"/>
-      <sheetName val="Rekap Barang"/>
-      <sheetName val="B - UKS I"/>
-      <sheetName val="B - UKS II"/>
-      <sheetName val="B - UKUT"/>
-      <sheetName val="B - P.B"/>
-      <sheetName val="B - PAL"/>
-      <sheetName val="B - KM"/>
-      <sheetName val="Rekap KIB B"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Alkes"/>
-      <sheetName val="ALKES RB"/>
-      <sheetName val="AL. UKS I"/>
-      <sheetName val="AL. UKS II"/>
-      <sheetName val="AL. UKUT"/>
-      <sheetName val="AL. PB"/>
-      <sheetName val="AL. PAL"/>
-      <sheetName val="AL. KM"/>
-      <sheetName val="tambahan"/>
-      <sheetName val="KIB E"/>
-      <sheetName val="KIB F"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Provinsi</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Kab./Kota</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Bidang</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Unit Organisasi</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Sub Unit Organisasi</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>U P B</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v xml:space="preserve">NO. KODE LOKASI </v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,23 +617,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -748,23 +652,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -917,86 +804,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="16" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="17" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="22" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="str">
-        <f>'[1]KIB A'!B3</f>
-        <v>Provinsi</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="G3" s="4"/>
+      <c r="I3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1005,22 +895,20 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="str">
-        <f>'[1]KIB A'!B4</f>
-        <v>Kab./Kota</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1029,22 +917,20 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="str">
-        <f>'[1]KIB A'!B5</f>
-        <v>Bidang</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="I5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1053,22 +939,20 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="str">
-        <f>'[1]KIB A'!B6</f>
-        <v>Unit Organisasi</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1077,24 +961,22 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="str">
-        <f>'[1]KIB A'!B7</f>
-        <v>Sub Unit Organisasi</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="5"/>
+      <c r="I7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1103,22 +985,20 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="str">
-        <f>'[1]KIB A'!B8</f>
-        <v>U P B</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1127,22 +1007,20 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="str">
-        <f>'[1]KIB A'!B9</f>
-        <v xml:space="preserve">NO. KODE LOKASI </v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1151,272 +1029,284 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="18" t="s">
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="23" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="23" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="23" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="26"/>
+      <c r="M12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="N12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="O12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="P12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="Q12" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="G13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="H13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="I13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="J13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="K13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="L13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="10" t="s">
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+    </row>
+    <row r="14" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+    </row>
+    <row r="15" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="21">
         <v>9</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="21"/>
+      <c r="L15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="21">
         <v>12</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7">
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="30" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="25"/>
+    </row>
+    <row r="17" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="31" t="s">
         <v>32</v>
       </c>
+      <c r="C17" s="31"/>
       <c r="D17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="G17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="H17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="I17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="J17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="K17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="L17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="M17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="N17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="O17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="P17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="36" t="s">
+      <c r="Q17" s="12" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="25">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:M14"/>
     <mergeCell ref="N12:N14"/>
     <mergeCell ref="O12:O14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="P12:P14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="Q12:Q14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
